--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/CF/20/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/CF/20/seed1/result_data_KNN.xlsx
@@ -502,13 +502,13 @@
         <v>4.04</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.73</v>
+        <v>-12.829</v>
       </c>
       <c r="D4" t="n">
         <v>-7.43</v>
       </c>
       <c r="E4" t="n">
-        <v>13.52</v>
+        <v>13.195</v>
       </c>
     </row>
     <row r="5">
@@ -525,7 +525,7 @@
         <v>-6.27</v>
       </c>
       <c r="E5" t="n">
-        <v>13.666</v>
+        <v>13.654</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>7.87</v>
       </c>
       <c r="C6" t="n">
-        <v>-11.926</v>
+        <v>-12.715</v>
       </c>
       <c r="D6" t="n">
         <v>-8.59</v>
       </c>
       <c r="E6" t="n">
-        <v>12.866</v>
+        <v>13.493</v>
       </c>
     </row>
     <row r="7">
@@ -553,7 +553,7 @@
         <v>6.56</v>
       </c>
       <c r="C7" t="n">
-        <v>-13.918</v>
+        <v>-13.214</v>
       </c>
       <c r="D7" t="n">
         <v>-9.31</v>
@@ -570,13 +570,13 @@
         <v>7.52</v>
       </c>
       <c r="C8" t="n">
-        <v>-12.268</v>
+        <v>-12.694</v>
       </c>
       <c r="D8" t="n">
         <v>-7.09</v>
       </c>
       <c r="E8" t="n">
-        <v>13.084</v>
+        <v>13.423</v>
       </c>
     </row>
     <row r="9">
@@ -706,13 +706,13 @@
         <v>8.949999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>-11.638</v>
+        <v>-11.738</v>
       </c>
       <c r="D16" t="n">
         <v>-4.8</v>
       </c>
       <c r="E16" t="n">
-        <v>12.23</v>
+        <v>13.094</v>
       </c>
     </row>
     <row r="17">
@@ -774,7 +774,7 @@
         <v>5.51</v>
       </c>
       <c r="C20" t="n">
-        <v>-13.492</v>
+        <v>-13.349</v>
       </c>
       <c r="D20" t="n">
         <v>-8.140000000000001</v>
@@ -791,7 +791,7 @@
         <v>7.49</v>
       </c>
       <c r="C21" t="n">
-        <v>-13.594</v>
+        <v>-13.214</v>
       </c>
       <c r="D21" t="n">
         <v>-8.890000000000001</v>
@@ -814,7 +814,7 @@
         <v>-5.14</v>
       </c>
       <c r="E22" t="n">
-        <v>12.958</v>
+        <v>13.238</v>
       </c>
     </row>
     <row r="23">
